--- a/results/CHART/feature_seleced_chart.xlsx
+++ b/results/CHART/feature_seleced_chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gta19\Desktop\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\honours-project-v2\results\CHART\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB22726E-122A-4D77-B2EB-09908F49BFC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E859294B-590B-410A-9BF7-3D8E9A0A56C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6661EA5E-BF3C-4FCC-AD43-FE2FD86E045B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Cepstral</t>
   </si>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>SVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +598,497 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>RF Selected Feature</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arousal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$12:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Segements</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loudness</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spectral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cepstral</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Signal energy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Zero-Crossings</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vocal </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-210E-4BB0-B023-EB0D58CDC830}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$12:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Segements</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Loudness</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spectral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cepstral</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Signal energy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Zero-Crossings</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vocal </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$12:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-210E-4BB0-B023-EB0D58CDC830}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1215244272"/>
+        <c:axId val="1215242192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1215244272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1215242192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1215242192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1215244272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1137,6 +1631,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1170,6 +2167,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>218660</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3E3C07-D4AF-4C44-A1CC-7023E72AB120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1475,10 +2508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B9937E-AF45-4598-8A84-95EC390AF04C}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1581,28 +2614,119 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1823,6 +2947,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BADE7B53-2E1E-47D8-99C7-9DF0563180DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD12038D-320E-4AC3-95AD-DD208FA45823}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1835,14 +2967,6 @@
     <ds:schemaRef ds:uri="9ede3a19-07ce-4942-8b88-9e59a26d9a9a"/>
     <ds:schemaRef ds:uri="dfc2343b-e61e-4632-9f50-8d7520bec1f2"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BADE7B53-2E1E-47D8-99C7-9DF0563180DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
